--- a/Data/Poblacion_Nacional.xlsx
+++ b/Data/Poblacion_Nacional.xlsx
@@ -151,17 +151,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -343,14 +343,22 @@
       <c r="A23" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="2" t="n">
         <v>5163021</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>5213362</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
